--- a/bird_info/bird_summary_table.xlsx
+++ b/bird_info/bird_summary_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Research\LANDIS Birds\bird_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A3243-D5A4-44AA-B3C6-3C686EAA5B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDE1F30-BF39-4CCF-B204-5E74CB4A6AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5A606B54-B0E8-4BE5-83D9-66821C3BC7ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>Species common name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Yellow-throated warbler</t>
   </si>
   <si>
-    <t>Blackburnian warbler*</t>
-  </si>
-  <si>
     <t>Golden-winged warbler</t>
   </si>
   <si>
@@ -140,18 +137,12 @@
     <t>Olive-sided flycatcher</t>
   </si>
   <si>
-    <t>Evening grosbeak</t>
-  </si>
-  <si>
     <t>Brown-headed nuthatch</t>
   </si>
   <si>
     <t>ACFL</t>
   </si>
   <si>
-    <t>EVGR</t>
-  </si>
-  <si>
     <t>ALFL</t>
   </si>
   <si>
@@ -206,15 +197,6 @@
     <t>WEWA</t>
   </si>
   <si>
-    <t>No long GCN</t>
-  </si>
-  <si>
-    <t>No longer</t>
-  </si>
-  <si>
-    <t>Sample size too small</t>
-  </si>
-  <si>
     <t>Eastern whip-poor-will</t>
   </si>
   <si>
@@ -281,14 +263,47 @@
     <t>Setophaga dominica</t>
   </si>
   <si>
-    <t>Not GCN</t>
+    <t>Setophaga fusca</t>
+  </si>
+  <si>
+    <t>Contopus cooperi</t>
+  </si>
+  <si>
+    <t>Antrostomus vociferus</t>
+  </si>
+  <si>
+    <t>Blue-winged warbler</t>
+  </si>
+  <si>
+    <t>BWWA</t>
+  </si>
+  <si>
+    <t>Nashville warbler</t>
+  </si>
+  <si>
+    <t>NAWA</t>
+  </si>
+  <si>
+    <t>Ovenbird</t>
+  </si>
+  <si>
+    <t>OVEN</t>
+  </si>
+  <si>
+    <t>Wood thrush</t>
+  </si>
+  <si>
+    <t>WOTH</t>
+  </si>
+  <si>
+    <t>Blackburnian warbler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +465,13 @@
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF2E261F"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -885,7 +907,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -893,10 +915,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -915,6 +937,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB4CBB5-5FAF-48E5-89E0-BACEC35321CE}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,13 +1361,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1358,13 +1384,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>13</v>
@@ -1373,228 +1399,205 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="10">
         <v>1508</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10" t="s">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10">
-        <v>5000</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="10">
-        <v>876</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1069</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="10">
-        <v>165</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="10">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="10">
-        <v>930</v>
-      </c>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="10">
-        <v>3076</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G11" s="10">
-        <v>40</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G12" s="10">
-        <v>2107</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>13</v>
@@ -1603,113 +1606,87 @@
         <v>5</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="10">
-        <v>304</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="10">
-        <v>308</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="10">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="10">
-        <v>6</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -1721,104 +1698,187 @@
         <v>14</v>
       </c>
       <c r="G18" s="10">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="10">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="10">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10">
+        <v>3</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10">
         <v>2151</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{BAB4CBB5-5FAF-48E5-89E0-BACEC35321CE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition ref="A1:A19"/>
+  <autoFilter ref="A1:G26" xr:uid="{BAB4CBB5-5FAF-48E5-89E0-BACEC35321CE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
